--- a/db/CG.xlsx
+++ b/db/CG.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20416"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tim77\PycharmProjects\termiteDispersal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2104AA9B-6218-422C-BD28-F6551F044F30}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A477B2F9-CBD2-4473-8E76-C74F00903F78}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -44,18 +44,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="新細明體"/>
       <family val="3"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="新細明體"/>
-      <family val="1"/>
-      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -93,12 +93,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -120,7 +117,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -162,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -194,27 +191,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -246,24 +225,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -440,16 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C100"/>
+  <dimension ref="A1:C218"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="F87" sqref="F87"/>
+    <sheetView tabSelected="1" topLeftCell="A212" workbookViewId="0">
+      <selection activeCell="F218" sqref="F218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="10.09765625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -459,1105 +419,2400 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>22.691400000000002</v>
+        <v>23.479472222222221</v>
       </c>
       <c r="B2">
-        <v>120.3169</v>
-      </c>
-      <c r="C2" s="3">
-        <v>42544</v>
+        <v>120.4398333333333</v>
+      </c>
+      <c r="C2" s="2">
+        <v>38859</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>23.374099999999999</v>
+        <v>23.773679000000001</v>
       </c>
       <c r="B3">
-        <v>120.40009999999999</v>
-      </c>
-      <c r="C3" s="3">
-        <v>42815</v>
+        <v>120.67292</v>
+      </c>
+      <c r="C3" s="2">
+        <v>41354</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>22.641100000000002</v>
+        <v>23.773679000000001</v>
       </c>
       <c r="B4">
-        <v>120.3587</v>
-      </c>
-      <c r="C4" s="3">
-        <v>42831</v>
+        <v>120.67292</v>
+      </c>
+      <c r="C4" s="2">
+        <v>41393</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>23.342639999999999</v>
+        <v>23.773679000000001</v>
       </c>
       <c r="B5">
-        <v>120.47709999999999</v>
-      </c>
-      <c r="C5" s="3">
-        <v>42831</v>
+        <v>120.67292</v>
+      </c>
+      <c r="C5" s="2">
+        <v>41382</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>22.641100000000002</v>
+        <v>23.956294</v>
       </c>
       <c r="B6">
-        <v>120.3587</v>
-      </c>
-      <c r="C6" s="3">
-        <v>42833</v>
+        <v>120.65195799999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>41726</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>22.99466</v>
+        <v>22.615126</v>
       </c>
       <c r="B7">
-        <v>120.2313</v>
-      </c>
-      <c r="C7" s="3">
-        <v>42842</v>
+        <v>120.56629700000001</v>
+      </c>
+      <c r="C7" s="2">
+        <v>41726</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>22.990490000000001</v>
+        <v>23.773800000000001</v>
       </c>
       <c r="B8">
-        <v>120.2329</v>
-      </c>
-      <c r="C8" s="3">
-        <v>42842</v>
+        <v>120.672729</v>
+      </c>
+      <c r="C8" s="2">
+        <v>41727</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>22.991099999999999</v>
+        <v>23.007035999999999</v>
       </c>
       <c r="B9">
-        <v>120.22450000000001</v>
-      </c>
-      <c r="C9" s="3">
-        <v>42842</v>
+        <v>120.21971499999999</v>
+      </c>
+      <c r="C9" s="2">
+        <v>41739</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>22.994299999999999</v>
+        <v>23.773800000000001</v>
       </c>
       <c r="B10">
-        <v>120.2325</v>
-      </c>
-      <c r="C10" s="3">
-        <v>42842</v>
+        <v>120.672729</v>
+      </c>
+      <c r="C10" s="2">
+        <v>42101</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>24.177949999999999</v>
+        <v>24.0896333333333</v>
       </c>
       <c r="B11">
-        <v>120.72</v>
-      </c>
-      <c r="C11" s="3">
-        <v>42842</v>
+        <v>120.708066666666</v>
+      </c>
+      <c r="C11" s="2">
+        <v>42124</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>22.583659999999998</v>
+        <v>22.562750000000001</v>
       </c>
       <c r="B12">
-        <v>120.3603</v>
-      </c>
-      <c r="C12" s="3">
-        <v>42853</v>
+        <v>120.3323611</v>
+      </c>
+      <c r="C12" s="2">
+        <v>41778</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>22.641100000000002</v>
+        <v>22.6426351</v>
       </c>
       <c r="B13">
-        <v>120.3587</v>
-      </c>
-      <c r="C13" s="3">
-        <v>42864</v>
+        <v>120.5090625</v>
+      </c>
+      <c r="C13" s="2">
+        <v>42842</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>23.968900000000001</v>
+        <v>23.342639999999999</v>
       </c>
       <c r="B14">
-        <v>121.5998</v>
-      </c>
-      <c r="C14" s="3">
-        <v>42870</v>
+        <v>120.47709999999999</v>
+      </c>
+      <c r="C14" s="2">
+        <v>42831</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>22.640689999999999</v>
+        <v>22.641100000000002</v>
       </c>
       <c r="B15">
-        <v>120.3553</v>
-      </c>
-      <c r="C15" s="3">
-        <v>42889</v>
+        <v>120.3587</v>
+      </c>
+      <c r="C15" s="2">
+        <v>42831</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>22.88466</v>
+        <v>22.553519999999999</v>
       </c>
       <c r="B16">
-        <v>120.3331</v>
-      </c>
-      <c r="C16" s="3">
-        <v>43194</v>
+        <v>120.55</v>
+      </c>
+      <c r="C16" s="2">
+        <v>42833</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>23.106079999999999</v>
+        <v>23.024370000000001</v>
       </c>
       <c r="B17">
-        <v>120.47029999999999</v>
-      </c>
-      <c r="C17" s="3">
-        <v>43203</v>
+        <v>120.19410000000001</v>
+      </c>
+      <c r="C17" s="2">
+        <v>42833</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>23.71508</v>
+        <v>22.572980000000001</v>
       </c>
       <c r="B18">
-        <v>120.53879999999999</v>
-      </c>
-      <c r="C18" s="3">
-        <v>43203</v>
+        <v>120.3125</v>
+      </c>
+      <c r="C18" s="2">
+        <v>42833</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>23.01023</v>
+        <v>22.787970000000001</v>
       </c>
       <c r="B19">
-        <v>120.24590000000001</v>
-      </c>
-      <c r="C19" s="3">
-        <v>43206</v>
+        <v>120.614</v>
+      </c>
+      <c r="C19" s="2">
+        <v>42833</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>22.978120000000001</v>
+        <v>22.785509999999999</v>
       </c>
       <c r="B20">
-        <v>120.2287</v>
-      </c>
-      <c r="C20" s="3">
-        <v>43211</v>
+        <v>120.6096</v>
+      </c>
+      <c r="C20" s="2">
+        <v>42833</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>23.01632</v>
+        <v>23.474139999999998</v>
       </c>
       <c r="B21">
-        <v>120.2342</v>
-      </c>
-      <c r="C21" s="3">
-        <v>43220</v>
+        <v>120.4632</v>
+      </c>
+      <c r="C21" s="2">
+        <v>42833</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22">
-        <v>23.466740000000001</v>
+        <v>23.342639999999999</v>
       </c>
       <c r="B22">
-        <v>120.48309999999999</v>
-      </c>
-      <c r="C22" s="3">
-        <v>43251</v>
+        <v>120.47709999999999</v>
+      </c>
+      <c r="C22" s="2">
+        <v>42834</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23">
-        <v>22.60773</v>
+        <v>22.641100000000002</v>
       </c>
       <c r="B23">
-        <v>120.3297</v>
-      </c>
-      <c r="C23" s="3">
-        <v>43544</v>
+        <v>120.3587</v>
+      </c>
+      <c r="C23" s="2">
+        <v>42833</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24">
-        <v>22.773009999999999</v>
+        <v>22.683769999999999</v>
       </c>
       <c r="B24">
-        <v>120.59399999999999</v>
-      </c>
-      <c r="C24" s="3">
-        <v>43552</v>
+        <v>120.5073</v>
+      </c>
+      <c r="C24" s="2">
+        <v>42836</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25">
-        <v>22.668900000000001</v>
+        <v>22.933250000000001</v>
       </c>
       <c r="B25">
-        <v>120.48609999999999</v>
-      </c>
-      <c r="C25" s="3">
-        <v>43565</v>
+        <v>120.23050000000001</v>
+      </c>
+      <c r="C25" s="2">
+        <v>42836</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26">
-        <v>24.073499999999999</v>
+        <v>22.645320000000002</v>
       </c>
       <c r="B26">
-        <v>120.71559999999999</v>
-      </c>
-      <c r="C26" s="3">
-        <v>43575</v>
+        <v>120.3514</v>
+      </c>
+      <c r="C26" s="2">
+        <v>42830</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27">
-        <v>24.11383</v>
+        <v>23.474139999999998</v>
       </c>
       <c r="B27">
-        <v>120.7212</v>
-      </c>
-      <c r="C27" s="3">
-        <v>43576</v>
+        <v>120.4632</v>
+      </c>
+      <c r="C27" s="2">
+        <v>42842</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28">
-        <v>22.68929</v>
+        <v>23.34179</v>
       </c>
       <c r="B28">
-        <v>120.4333</v>
-      </c>
-      <c r="C28" s="3">
-        <v>43910</v>
+        <v>120.4766</v>
+      </c>
+      <c r="C28" s="2">
+        <v>42842</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29">
-        <v>23.266680000000001</v>
+        <v>22.644439999999999</v>
       </c>
       <c r="B29">
-        <v>120.50320000000001</v>
-      </c>
-      <c r="C29" s="3">
-        <v>43913</v>
+        <v>120.60980000000001</v>
+      </c>
+      <c r="C29" s="2">
+        <v>42842</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30">
-        <v>22.68929</v>
+        <v>23.03679</v>
       </c>
       <c r="B30">
-        <v>120.4333</v>
-      </c>
-      <c r="C30" s="3">
-        <v>43915</v>
+        <v>120.2141</v>
+      </c>
+      <c r="C30" s="2">
+        <v>42843</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31">
-        <v>22.68929</v>
+        <v>24.177949999999999</v>
       </c>
       <c r="B31">
-        <v>120.4333</v>
-      </c>
-      <c r="C31" s="3">
-        <v>43939</v>
+        <v>120.72</v>
+      </c>
+      <c r="C31" s="2">
+        <v>42842</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32">
-        <v>22.564779999999999</v>
+        <v>22.994299999999999</v>
       </c>
       <c r="B32">
-        <v>120.3546</v>
-      </c>
-      <c r="C32" s="3">
-        <v>43941</v>
+        <v>120.2325</v>
+      </c>
+      <c r="C32" s="2">
+        <v>42842</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33">
-        <v>24.17963</v>
+        <v>22.99466</v>
       </c>
       <c r="B33">
-        <v>120.59910000000001</v>
-      </c>
-      <c r="C33" s="3">
-        <v>43941</v>
+        <v>120.2313</v>
+      </c>
+      <c r="C33" s="2">
+        <v>42842</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34">
-        <v>24.136780000000002</v>
+        <v>22.991099999999999</v>
       </c>
       <c r="B34">
-        <v>120.685</v>
-      </c>
-      <c r="C34" s="3">
-        <v>43978</v>
+        <v>120.22450000000001</v>
+      </c>
+      <c r="C34" s="2">
+        <v>42842</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35">
-        <v>23.088349999999998</v>
+        <v>22.990490000000001</v>
       </c>
       <c r="B35">
-        <v>120.0406</v>
-      </c>
-      <c r="C35" s="3">
-        <v>44054</v>
+        <v>120.2329</v>
+      </c>
+      <c r="C35" s="2">
+        <v>42842</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36">
-        <v>23.51</v>
+        <v>23.71603</v>
       </c>
       <c r="B36">
-        <v>120.52419999999999</v>
-      </c>
-      <c r="C36" s="3">
-        <v>44274</v>
+        <v>120.5652</v>
+      </c>
+      <c r="C36" s="2">
+        <v>42840</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37">
-        <v>22.643339999999998</v>
+        <v>22.618970000000001</v>
       </c>
       <c r="B37">
-        <v>120.60980000000001</v>
-      </c>
-      <c r="C37" s="3">
-        <v>44275</v>
+        <v>120.3843</v>
+      </c>
+      <c r="C37" s="2">
+        <v>42850</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38">
-        <v>23.768329999999999</v>
+        <v>22.644439999999999</v>
       </c>
       <c r="B38">
-        <v>120.7079</v>
-      </c>
-      <c r="C38" s="3">
-        <v>44276</v>
+        <v>120.60980000000001</v>
+      </c>
+      <c r="C38" s="2">
+        <v>42858</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39">
-        <v>22.60698</v>
+        <v>22.583659999999998</v>
       </c>
       <c r="B39">
-        <v>120.30589999999999</v>
-      </c>
-      <c r="C39" s="3">
-        <v>44300</v>
+        <v>120.3603</v>
+      </c>
+      <c r="C39" s="2">
+        <v>42853</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40">
-        <v>23.033539999999999</v>
+        <v>23.342639999999999</v>
       </c>
       <c r="B40">
-        <v>120.3122</v>
-      </c>
-      <c r="C40" s="3">
-        <v>44301</v>
+        <v>120.47709999999999</v>
+      </c>
+      <c r="C40" s="2">
+        <v>42869</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41">
-        <v>23.013300000000001</v>
+        <v>22.641100000000002</v>
       </c>
       <c r="B41">
-        <v>120.2389</v>
-      </c>
-      <c r="C41" s="3">
-        <v>44321</v>
+        <v>120.3587</v>
+      </c>
+      <c r="C41" s="2">
+        <v>42864</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42">
-        <v>22.966170000000002</v>
+        <v>22.796240000000001</v>
       </c>
       <c r="B42">
-        <v>120.23009999999999</v>
-      </c>
-      <c r="C42" s="3">
-        <v>44674</v>
+        <v>120.5164</v>
+      </c>
+      <c r="C42" s="2">
+        <v>42903</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43">
-        <v>22.969830000000002</v>
+        <v>23.756836</v>
       </c>
       <c r="B43">
-        <v>120.2255</v>
-      </c>
-      <c r="C43" s="3">
-        <v>44694</v>
+        <v>120.67246900000001</v>
+      </c>
+      <c r="C43" s="2">
+        <v>43203</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44">
-        <v>23.4682</v>
+        <v>22.787710000000001</v>
       </c>
       <c r="B44">
-        <v>120.4837</v>
-      </c>
-      <c r="C44" s="3">
-        <v>45003</v>
+        <v>120.6139</v>
+      </c>
+      <c r="C44" s="2">
+        <v>43194</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45">
-        <v>22.966170000000002</v>
+        <v>22.983930000000001</v>
       </c>
       <c r="B45">
-        <v>120.23009999999999</v>
-      </c>
-      <c r="C45" s="3">
-        <v>45008</v>
+        <v>120.1857</v>
+      </c>
+      <c r="C45" s="2">
+        <v>43203</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46">
-        <v>24.285679999999999</v>
+        <v>23.010549999999999</v>
       </c>
       <c r="B46">
-        <v>120.794</v>
-      </c>
-      <c r="C46" s="3">
-        <v>45020</v>
+        <v>120.20350000000001</v>
+      </c>
+      <c r="C46" s="2">
+        <v>43203</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47">
-        <v>22.995719999999999</v>
+        <v>22.66161</v>
       </c>
       <c r="B47">
-        <v>120.181</v>
-      </c>
-      <c r="C47" s="3">
-        <v>45021</v>
+        <v>120.5153</v>
+      </c>
+      <c r="C47" s="2">
+        <v>43203</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48">
-        <v>22.99342</v>
+        <v>23.09319</v>
       </c>
       <c r="B48">
-        <v>120.16471</v>
-      </c>
-      <c r="C48" s="3">
-        <v>45021</v>
+        <v>120.3746</v>
+      </c>
+      <c r="C48" s="2">
+        <v>43203</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49">
-        <v>22.631340000000002</v>
+        <v>22.99437</v>
       </c>
       <c r="B49">
-        <v>120.313</v>
-      </c>
-      <c r="C49" s="3">
-        <v>45029</v>
+        <v>120.23269999999999</v>
+      </c>
+      <c r="C49" s="2">
+        <v>43203</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50">
-        <v>22.13129</v>
+        <v>23.46536</v>
       </c>
       <c r="B50">
-        <v>120.7063</v>
-      </c>
-      <c r="C50" s="3">
-        <v>45063</v>
+        <v>120.4836</v>
+      </c>
+      <c r="C50" s="2">
+        <v>43204</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51">
-        <v>22.61299</v>
+        <v>23.106079999999999</v>
       </c>
       <c r="B51">
-        <v>120.40243</v>
-      </c>
-      <c r="C51" s="3">
-        <v>45376</v>
+        <v>120.47029999999999</v>
+      </c>
+      <c r="C51" s="2">
+        <v>43203</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52">
-        <v>22.66423</v>
+        <v>23.01023</v>
       </c>
       <c r="B52">
-        <v>120.30696</v>
-      </c>
-      <c r="C52" s="3">
-        <v>45376</v>
+        <v>120.24590000000001</v>
+      </c>
+      <c r="C52" s="2">
+        <v>43206</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53">
-        <v>23.72645</v>
+        <v>23.000710000000002</v>
       </c>
       <c r="B53">
-        <v>120.62126000000001</v>
-      </c>
-      <c r="C53" s="3">
-        <v>45376</v>
+        <v>120.24299999999999</v>
+      </c>
+      <c r="C53" s="2">
+        <v>43204</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54">
-        <v>22.489039999999999</v>
+        <v>22.960619999999999</v>
       </c>
       <c r="B54">
-        <v>120.47507</v>
-      </c>
-      <c r="C54" s="3">
-        <v>45376</v>
+        <v>120.2306</v>
+      </c>
+      <c r="C54" s="2">
+        <v>43203</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55">
-        <v>22.663869999999999</v>
+        <v>23.042960000000001</v>
       </c>
       <c r="B55">
-        <v>120.36064</v>
-      </c>
-      <c r="C55" s="3">
-        <v>45376</v>
+        <v>120.2161</v>
+      </c>
+      <c r="C55" s="2">
+        <v>43203</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56">
-        <v>23.301839999999999</v>
+        <v>22.7853812</v>
       </c>
       <c r="B56">
-        <v>120.30624</v>
-      </c>
-      <c r="C56" s="3">
-        <v>45376</v>
+        <v>120.6094252</v>
+      </c>
+      <c r="C56" s="2">
+        <v>43212</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57">
-        <v>22.61636</v>
+        <v>23.71508</v>
       </c>
       <c r="B57">
-        <v>120.40868</v>
-      </c>
-      <c r="C57" s="3">
-        <v>45376</v>
+        <v>120.53879999999999</v>
+      </c>
+      <c r="C57" s="2">
+        <v>43203</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58">
-        <v>22.627279999999999</v>
+        <v>22.62585</v>
       </c>
       <c r="B58">
-        <v>120.30144</v>
-      </c>
-      <c r="C58" s="3">
-        <v>45376</v>
+        <v>120.35850000000001</v>
+      </c>
+      <c r="C58" s="2">
+        <v>43221</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59">
-        <v>23.705290000000002</v>
+        <v>23.01632</v>
       </c>
       <c r="B59">
-        <v>120.5538</v>
-      </c>
-      <c r="C59" s="3">
-        <v>45377</v>
+        <v>120.2342</v>
+      </c>
+      <c r="C59" s="2">
+        <v>43220</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60">
-        <v>22.64677</v>
+        <v>23.45712</v>
       </c>
       <c r="B60">
-        <v>120.60639999999999</v>
-      </c>
-      <c r="C60" s="3">
-        <v>45377</v>
+        <v>120.4657</v>
+      </c>
+      <c r="C60" s="2">
+        <v>42814</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61">
-        <v>22.643699999999999</v>
+        <v>22.88466</v>
       </c>
       <c r="B61">
-        <v>120.61089</v>
-      </c>
-      <c r="C61" s="3">
-        <v>45377</v>
+        <v>120.3331</v>
+      </c>
+      <c r="C61" s="2">
+        <v>43194</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62">
-        <v>22.643930000000001</v>
+        <v>23.123149999999999</v>
       </c>
       <c r="B62">
-        <v>120.57898</v>
-      </c>
-      <c r="C62" s="3">
-        <v>45377</v>
+        <v>120.4699</v>
+      </c>
+      <c r="C62" s="2">
+        <v>43552</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63">
-        <v>24.049040000000002</v>
+        <v>22.60773</v>
       </c>
       <c r="B63">
-        <v>120.65879</v>
-      </c>
-      <c r="C63" s="3">
-        <v>45378</v>
+        <v>120.3297</v>
+      </c>
+      <c r="C63" s="2">
+        <v>43544</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64">
-        <v>22.64781</v>
+        <v>22.992989999999999</v>
       </c>
       <c r="B64">
-        <v>120.59368000000001</v>
-      </c>
-      <c r="C64" s="3">
-        <v>45382</v>
+        <v>120.2295</v>
+      </c>
+      <c r="C64" s="2">
+        <v>43562</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65">
-        <v>22.735700000000001</v>
+        <v>22.773009999999999</v>
       </c>
       <c r="B65">
-        <v>120.32874</v>
-      </c>
-      <c r="C65" s="3">
-        <v>45382</v>
+        <v>120.59399999999999</v>
+      </c>
+      <c r="C65" s="2">
+        <v>43552</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66">
-        <v>22.64677</v>
+        <v>23.141120000000001</v>
       </c>
       <c r="B66">
-        <v>120.60639999999999</v>
-      </c>
-      <c r="C66" s="3">
-        <v>45382</v>
+        <v>120.3176</v>
+      </c>
+      <c r="C66" s="2">
+        <v>43578</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67">
-        <v>22.61627</v>
+        <v>22.68347</v>
       </c>
       <c r="B67">
-        <v>120.52642</v>
-      </c>
-      <c r="C67" s="3">
-        <v>45382</v>
+        <v>120.3536</v>
+      </c>
+      <c r="C67" s="2">
+        <v>43578</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68">
-        <v>22.649280000000001</v>
+        <v>22.99437</v>
       </c>
       <c r="B68">
-        <v>120.59690999999999</v>
-      </c>
-      <c r="C68" s="3">
-        <v>45382</v>
+        <v>120.2323</v>
+      </c>
+      <c r="C68" s="2">
+        <v>43579</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69">
-        <v>22.644449999999999</v>
+        <v>23.710629999999998</v>
       </c>
       <c r="B69">
-        <v>120.60867</v>
-      </c>
-      <c r="C69" s="3">
-        <v>45382</v>
+        <v>120.5415</v>
+      </c>
+      <c r="C69" s="2">
+        <v>43573</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70">
-        <v>22.99342</v>
+        <v>22.7166</v>
       </c>
       <c r="B70">
-        <v>120.16471</v>
-      </c>
-      <c r="C70" s="3">
-        <v>45382</v>
+        <v>120.5214</v>
+      </c>
+      <c r="C70" s="2">
+        <v>43575</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71">
-        <v>22.962289999999999</v>
+        <v>22.460989999999999</v>
       </c>
       <c r="B71">
-        <v>120.23324</v>
-      </c>
-      <c r="C71" s="3">
-        <v>45382</v>
+        <v>120.44370000000001</v>
+      </c>
+      <c r="C71" s="2">
+        <v>43611</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72">
-        <v>22.64424</v>
+        <v>22.984570000000001</v>
       </c>
       <c r="B72">
-        <v>120.37526</v>
-      </c>
-      <c r="C72" s="3">
-        <v>45386</v>
+        <v>120.2328</v>
+      </c>
+      <c r="C72" s="2">
+        <v>43615</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73">
-        <v>22.5825</v>
+        <v>22.593389999999999</v>
       </c>
       <c r="B73">
-        <v>120.34806</v>
-      </c>
-      <c r="C73" s="3">
-        <v>45386</v>
+        <v>120.33110000000001</v>
+      </c>
+      <c r="C73" s="2">
+        <v>43599</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74">
-        <v>22.674389999999999</v>
+        <v>22.973089999999999</v>
       </c>
       <c r="B74">
-        <v>120.32348</v>
-      </c>
-      <c r="C74" s="3">
-        <v>45386</v>
+        <v>120.2294</v>
+      </c>
+      <c r="C74" s="2">
+        <v>43602</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75">
-        <v>23.485330000000001</v>
+        <v>24.073499999999999</v>
       </c>
       <c r="B75">
-        <v>120.47609</v>
-      </c>
-      <c r="C75" s="3">
-        <v>45386</v>
+        <v>120.71559999999999</v>
+      </c>
+      <c r="C75" s="2">
+        <v>43575</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76">
-        <v>23.167919999999999</v>
+        <v>22.64068</v>
       </c>
       <c r="B76">
-        <v>120.17191</v>
-      </c>
-      <c r="C76" s="3">
-        <v>45395</v>
+        <v>120.3647</v>
+      </c>
+      <c r="C76" s="2">
+        <v>43641</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77">
-        <v>24.12407</v>
+        <v>22.9817</v>
       </c>
       <c r="B77">
-        <v>120.71707000000001</v>
-      </c>
-      <c r="C77" s="3">
-        <v>45395</v>
+        <v>120.2818</v>
+      </c>
+      <c r="C77" s="2">
+        <v>43882</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78">
-        <v>22.646519999999999</v>
+        <v>23.03171</v>
       </c>
       <c r="B78">
-        <v>120.60757</v>
-      </c>
-      <c r="C78" s="3">
-        <v>45396</v>
+        <v>120.2062</v>
+      </c>
+      <c r="C78" s="2">
+        <v>43904</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79">
-        <v>22.647790000000001</v>
+        <v>22.68929</v>
       </c>
       <c r="B79">
-        <v>120.59310000000001</v>
-      </c>
-      <c r="C79" s="3">
-        <v>45396</v>
+        <v>120.4333</v>
+      </c>
+      <c r="C79" s="2">
+        <v>43911</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80">
-        <v>22.643350000000002</v>
+        <v>22.564779999999999</v>
       </c>
       <c r="B80">
-        <v>120.60983</v>
-      </c>
-      <c r="C80" s="3">
-        <v>45396</v>
+        <v>120.3546</v>
+      </c>
+      <c r="C80" s="2">
+        <v>43941</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81">
-        <v>24.183489999999999</v>
+        <v>24.17557</v>
       </c>
       <c r="B81">
-        <v>120.61405000000001</v>
-      </c>
-      <c r="C81" s="3">
-        <v>45396</v>
+        <v>120.60775099999999</v>
+      </c>
+      <c r="C81" s="2">
+        <v>44287</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82">
-        <v>24.186530000000001</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B82">
-        <v>120.61431</v>
-      </c>
-      <c r="C82" s="3">
-        <v>45396</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C82" s="2">
+        <v>43931</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83">
-        <v>22.982749999999999</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B83">
-        <v>120.21192000000001</v>
-      </c>
-      <c r="C83" s="3">
-        <v>45396</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C83" s="2">
+        <v>43937</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84">
-        <v>22.984030000000001</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B84">
-        <v>120.18707000000001</v>
-      </c>
-      <c r="C84" s="3">
-        <v>45397</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C84" s="2">
+        <v>43937</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85">
-        <v>22.56504</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B85">
-        <v>120.3372</v>
-      </c>
-      <c r="C85" s="3">
-        <v>45398</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C85" s="2">
+        <v>43938</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86">
-        <v>23.0093</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B86">
-        <v>120.23390999999999</v>
-      </c>
-      <c r="C86" s="3">
-        <v>45398</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C86" s="2">
+        <v>43941</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87">
-        <v>22.61636</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B87">
-        <v>120.40868</v>
-      </c>
-      <c r="C87" s="3">
-        <v>45398</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C87" s="2">
+        <v>43949</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88">
-        <v>22.565149999999999</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B88">
-        <v>120.33727</v>
-      </c>
-      <c r="C88" s="3">
-        <v>45399</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C88" s="2">
+        <v>43951</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89">
-        <v>24.145910000000001</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B89">
-        <v>120.63363</v>
-      </c>
-      <c r="C89" s="3">
-        <v>45399</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C89" s="2">
+        <v>43954</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90">
-        <v>22.687740000000002</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B90">
-        <v>120.29165</v>
-      </c>
-      <c r="C90" s="3">
-        <v>45401</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C90" s="2">
+        <v>43955</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91">
-        <v>22.674389999999999</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B91">
-        <v>120.32348</v>
-      </c>
-      <c r="C91" s="3">
-        <v>45401</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C91" s="2">
+        <v>43964</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92">
-        <v>22.645340000000001</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B92">
-        <v>120.60666000000001</v>
-      </c>
-      <c r="C92" s="3">
-        <v>45402</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C92" s="2">
+        <v>44288</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93">
-        <v>22.627279999999999</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B93">
-        <v>120.30144</v>
-      </c>
-      <c r="C93" s="3">
-        <v>45402</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C93" s="2">
+        <v>44299</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94">
-        <v>22.65616</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B94">
-        <v>120.34137</v>
-      </c>
-      <c r="C94" s="3">
-        <v>45410</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C94" s="2">
+        <v>44309</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95">
-        <v>24.123550000000002</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B95">
-        <v>120.67533</v>
-      </c>
-      <c r="C95" s="3">
-        <v>45413</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C95" s="2">
+        <v>44318</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96">
-        <v>22.62144</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B96">
-        <v>120.31972</v>
-      </c>
-      <c r="C96" s="3">
-        <v>45414</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C96" s="2">
+        <v>44320</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97">
-        <v>22.64528</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B97">
-        <v>120.60653000000001</v>
-      </c>
-      <c r="C97" s="3">
-        <v>45418</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C97" s="2">
+        <v>44320</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98">
-        <v>22.98133</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B98">
-        <v>120.22242</v>
-      </c>
-      <c r="C98" s="3">
-        <v>45419</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C98" s="2">
+        <v>44322</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99">
-        <v>24.184609999999999</v>
+        <v>24.187094999999999</v>
       </c>
       <c r="B99">
-        <v>120.60451</v>
-      </c>
-      <c r="C99" s="3">
-        <v>45419</v>
+        <v>120.610158</v>
+      </c>
+      <c r="C99" s="2">
+        <v>44331</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100">
+        <v>22.60698</v>
+      </c>
+      <c r="B100">
+        <v>120.30589999999999</v>
+      </c>
+      <c r="C100" s="2">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101">
+        <v>23.245719999999999</v>
+      </c>
+      <c r="B101">
+        <v>120.2671</v>
+      </c>
+      <c r="C101" s="2">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102">
+        <v>23.70524</v>
+      </c>
+      <c r="B102">
+        <v>120.35299999999999</v>
+      </c>
+      <c r="C102" s="2">
+        <v>44287</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103">
+        <v>23.485949999999999</v>
+      </c>
+      <c r="B103">
+        <v>120.4572</v>
+      </c>
+      <c r="C103" s="2">
+        <v>44322</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104">
+        <v>23.476849999999999</v>
+      </c>
+      <c r="B104">
+        <v>120.4599</v>
+      </c>
+      <c r="C104" s="2">
+        <v>44284</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105">
+        <v>22.623049999999999</v>
+      </c>
+      <c r="B105">
+        <v>120.29089999999999</v>
+      </c>
+      <c r="C105" s="2">
+        <v>44316</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106">
+        <v>23.002690000000001</v>
+      </c>
+      <c r="B106">
+        <v>120.19750000000001</v>
+      </c>
+      <c r="C106" s="2">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107">
+        <v>24.150169999999999</v>
+      </c>
+      <c r="B107">
+        <v>120.67749999999999</v>
+      </c>
+      <c r="C107" s="2">
+        <v>43972</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108">
+        <v>22.971990000000002</v>
+      </c>
+      <c r="B108">
+        <v>120.3528</v>
+      </c>
+      <c r="C108" s="2">
+        <v>43936</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109">
+        <v>23.010529999999999</v>
+      </c>
+      <c r="B109">
+        <v>120.20350000000001</v>
+      </c>
+      <c r="C109" s="2">
+        <v>44337</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>23.922370000000001</v>
+      </c>
+      <c r="B110">
+        <v>120.5471</v>
+      </c>
+      <c r="C110" s="2">
+        <v>44302</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>23.097110000000001</v>
+      </c>
+      <c r="B111">
+        <v>120.3694</v>
+      </c>
+      <c r="C111" s="2">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>22.984559999999998</v>
+      </c>
+      <c r="B112">
+        <v>120.2131</v>
+      </c>
+      <c r="C112" s="2">
+        <v>44285</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>22.994499999999999</v>
+      </c>
+      <c r="B113">
+        <v>120.23269999999999</v>
+      </c>
+      <c r="C113" s="2">
+        <v>44282</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>22.948329999999999</v>
+      </c>
+      <c r="B114">
+        <v>120.184</v>
+      </c>
+      <c r="C114" s="2">
+        <v>44300</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115">
+        <v>22.99588</v>
+      </c>
+      <c r="B115">
+        <v>120.2319</v>
+      </c>
+      <c r="C115" s="2">
+        <v>43937</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116">
+        <v>23.453669999999999</v>
+      </c>
+      <c r="B116">
+        <v>120.4597</v>
+      </c>
+      <c r="C116" s="2">
+        <v>43927</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117">
+        <v>22.643339999999998</v>
+      </c>
+      <c r="B117">
+        <v>120.60980000000001</v>
+      </c>
+      <c r="C117" s="2">
+        <v>44275</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118">
+        <v>22.984059999999999</v>
+      </c>
+      <c r="B118">
+        <v>120.21720000000001</v>
+      </c>
+      <c r="C118" s="2">
+        <v>43950</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119">
+        <v>23.013300000000001</v>
+      </c>
+      <c r="B119">
+        <v>120.2389</v>
+      </c>
+      <c r="C119" s="2">
+        <v>44321</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120">
+        <v>22.995660000000001</v>
+      </c>
+      <c r="B120">
+        <v>120.2003</v>
+      </c>
+      <c r="C120" s="2">
+        <v>44313</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121">
+        <v>22.63935</v>
+      </c>
+      <c r="B121">
+        <v>120.548</v>
+      </c>
+      <c r="C121" s="2">
+        <v>43939</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122">
+        <v>23.768329999999999</v>
+      </c>
+      <c r="B122">
+        <v>120.7079</v>
+      </c>
+      <c r="C122" s="2">
+        <v>44276</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123">
+        <v>22.629169999999998</v>
+      </c>
+      <c r="B123">
+        <v>120.30589999999999</v>
+      </c>
+      <c r="C123" s="2">
+        <v>44309</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124">
+        <v>25.088010000000001</v>
+      </c>
+      <c r="B124">
+        <v>121.5921</v>
+      </c>
+      <c r="C124" s="2">
+        <v>43951</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125">
+        <v>24.136790000000001</v>
+      </c>
+      <c r="B125">
+        <v>120.6373</v>
+      </c>
+      <c r="C125" s="2">
+        <v>44335</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126">
+        <v>24.136780000000002</v>
+      </c>
+      <c r="B126">
+        <v>120.685</v>
+      </c>
+      <c r="C126" s="2">
+        <v>43978</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127">
+        <v>23.123349999999999</v>
+      </c>
+      <c r="B127">
+        <v>120.47020000000001</v>
+      </c>
+      <c r="C127" s="2">
+        <v>44275</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128">
+        <v>23.51</v>
+      </c>
+      <c r="B128">
+        <v>120.52419999999999</v>
+      </c>
+      <c r="C128" s="2">
+        <v>44274</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129">
+        <v>23.712199999999999</v>
+      </c>
+      <c r="B129">
+        <v>120.68899999999999</v>
+      </c>
+      <c r="C129" s="2">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>24.07891</v>
+      </c>
+      <c r="B130">
+        <v>120.5504</v>
+      </c>
+      <c r="C130" s="2">
+        <v>44279</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>23.033539999999999</v>
+      </c>
+      <c r="B131">
+        <v>120.3122</v>
+      </c>
+      <c r="C131" s="2">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>22.62453</v>
+      </c>
+      <c r="B132">
+        <v>120.5039</v>
+      </c>
+      <c r="C132" s="2">
+        <v>44301</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>22.683350999999998</v>
+      </c>
+      <c r="B133">
+        <v>120.307006</v>
+      </c>
+      <c r="C133" s="2">
+        <v>44327</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>24.186884826014499</v>
+      </c>
+      <c r="B134">
+        <v>120.614189568567</v>
+      </c>
+      <c r="C134" s="2">
+        <v>44674</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>23.704803999999999</v>
+      </c>
+      <c r="B135">
+        <v>120.554075</v>
+      </c>
+      <c r="C135" s="2">
+        <v>44651</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>23.495618</v>
+      </c>
+      <c r="B136">
+        <v>120.499877</v>
+      </c>
+      <c r="C136" s="2">
+        <v>44653</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>23.322263</v>
+      </c>
+      <c r="B137">
+        <v>120.276944</v>
+      </c>
+      <c r="C137" s="2">
+        <v>44640</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138">
+        <v>22.648109000000002</v>
+      </c>
+      <c r="B138">
+        <v>120.27709400000001</v>
+      </c>
+      <c r="C138" s="2">
+        <v>44670</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139">
+        <v>23.386647</v>
+      </c>
+      <c r="B139">
+        <v>120.381311</v>
+      </c>
+      <c r="C139" s="2">
+        <v>44669</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140">
+        <v>23.926696</v>
+      </c>
+      <c r="B140">
+        <v>120.60753099999999</v>
+      </c>
+      <c r="C140" s="2">
+        <v>44660</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141">
+        <v>24.185224000000002</v>
+      </c>
+      <c r="B141">
+        <v>120.6155953</v>
+      </c>
+      <c r="C141" s="2">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142">
+        <v>24.202107000000002</v>
+      </c>
+      <c r="B142">
+        <v>120.6216</v>
+      </c>
+      <c r="C142" s="2">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143">
+        <v>24.185224000000002</v>
+      </c>
+      <c r="B143">
+        <v>120.6155953</v>
+      </c>
+      <c r="C143" s="2">
+        <v>44677</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144">
+        <v>23.019580000000001</v>
+      </c>
+      <c r="B144">
+        <v>120.25449999999999</v>
+      </c>
+      <c r="C144" s="2">
+        <v>44675</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145">
+        <v>23.014119999999998</v>
+      </c>
+      <c r="B145">
+        <v>120.2392</v>
+      </c>
+      <c r="C145" s="2">
+        <v>44674</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146">
+        <v>23.036190000000001</v>
+      </c>
+      <c r="B146">
+        <v>120.30110000000001</v>
+      </c>
+      <c r="C146" s="2">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147">
+        <v>23.04946</v>
+      </c>
+      <c r="B147">
+        <v>120.31950000000001</v>
+      </c>
+      <c r="C147" s="2">
+        <v>44659</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148">
+        <v>23.219249999999999</v>
+      </c>
+      <c r="B148">
+        <v>120.2757</v>
+      </c>
+      <c r="C148" s="2">
+        <v>44642</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149">
+        <v>23.86692</v>
+      </c>
+      <c r="B149">
+        <v>120.5274</v>
+      </c>
+      <c r="C149" s="2">
+        <v>44678</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150">
+        <v>21.943339999999999</v>
+      </c>
+      <c r="B150">
+        <v>120.8047</v>
+      </c>
+      <c r="C150" s="2">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151">
+        <v>23.682659999999998</v>
+      </c>
+      <c r="B151">
+        <v>120.5702</v>
+      </c>
+      <c r="C151" s="2">
+        <v>44661</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152">
+        <v>22.6264</v>
+      </c>
+      <c r="B152">
+        <v>120.26730000000001</v>
+      </c>
+      <c r="C152" s="2">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153">
+        <v>24.1215321680187</v>
+      </c>
+      <c r="B153">
+        <v>120.675916582621</v>
+      </c>
+      <c r="C153" s="2">
+        <v>45066</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154">
+        <v>22.969830000000002</v>
+      </c>
+      <c r="B154">
+        <v>120.2255</v>
+      </c>
+      <c r="C154" s="2">
+        <v>44694</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155">
+        <v>22.643699999999999</v>
+      </c>
+      <c r="B155">
+        <v>120.6109</v>
+      </c>
+      <c r="C155" s="2">
+        <v>44662</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156">
+        <v>22.666419999999999</v>
+      </c>
+      <c r="B156">
+        <v>120.4875</v>
+      </c>
+      <c r="C156" s="2">
+        <v>44663</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157">
+        <v>22.6477</v>
+      </c>
+      <c r="B157">
+        <v>120.3463</v>
+      </c>
+      <c r="C157" s="2">
+        <v>44664</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158">
+        <v>22.666419999999999</v>
+      </c>
+      <c r="B158">
+        <v>120.4875</v>
+      </c>
+      <c r="C158" s="2">
+        <v>44665</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159">
+        <v>22.720829999999999</v>
+      </c>
+      <c r="B159">
+        <v>120.6649</v>
+      </c>
+      <c r="C159" s="2">
+        <v>44673</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160">
+        <v>22.647829999999999</v>
+      </c>
+      <c r="B160">
+        <v>120.3083</v>
+      </c>
+      <c r="C160" s="2">
+        <v>44687</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161">
+        <v>23.4682</v>
+      </c>
+      <c r="B161">
+        <v>120.4837</v>
+      </c>
+      <c r="C161" s="2">
+        <v>45003</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162">
+        <v>22.995719999999999</v>
+      </c>
+      <c r="B162">
+        <v>120.181</v>
+      </c>
+      <c r="C162" s="2">
+        <v>45021</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163">
+        <v>24.170929999999998</v>
+      </c>
+      <c r="B163">
+        <v>120.6742</v>
+      </c>
+      <c r="C163" s="2">
+        <v>45030</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164">
+        <v>22.631340000000002</v>
+      </c>
+      <c r="B164">
+        <v>120.313</v>
+      </c>
+      <c r="C164" s="2">
+        <v>45029</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165">
+        <v>22.966170000000002</v>
+      </c>
+      <c r="B165">
+        <v>120.23009999999999</v>
+      </c>
+      <c r="C165" s="2">
+        <v>45008</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166">
+        <v>24.203404707010201</v>
+      </c>
+      <c r="B166">
+        <v>120.728536851181</v>
+      </c>
+      <c r="C166" s="2">
+        <v>45030</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167">
+        <v>23.174189999999999</v>
+      </c>
+      <c r="B167">
+        <v>120.1743</v>
+      </c>
+      <c r="C167" s="2">
+        <v>44288</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168">
+        <v>22.710262</v>
+      </c>
+      <c r="B168">
+        <v>121.060768</v>
+      </c>
+      <c r="C168" s="2">
+        <v>43561</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169">
+        <v>22.61299</v>
+      </c>
+      <c r="B169">
+        <v>120.40243</v>
+      </c>
+      <c r="C169" s="2">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170">
+        <v>22.66423</v>
+      </c>
+      <c r="B170">
+        <v>120.30696</v>
+      </c>
+      <c r="C170" s="2">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171">
+        <v>23.72645</v>
+      </c>
+      <c r="B171">
+        <v>120.62126000000001</v>
+      </c>
+      <c r="C171" s="2">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172">
+        <v>22.489039999999999</v>
+      </c>
+      <c r="B172">
+        <v>120.47507</v>
+      </c>
+      <c r="C172" s="2">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173">
+        <v>22.663869999999999</v>
+      </c>
+      <c r="B173">
+        <v>120.36064</v>
+      </c>
+      <c r="C173" s="2">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174">
+        <v>23.301839999999999</v>
+      </c>
+      <c r="B174">
+        <v>120.30624</v>
+      </c>
+      <c r="C174" s="2">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175">
+        <v>22.61636</v>
+      </c>
+      <c r="B175">
+        <v>120.40868</v>
+      </c>
+      <c r="C175" s="2">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A176">
+        <v>22.627279999999999</v>
+      </c>
+      <c r="B176">
+        <v>120.30144</v>
+      </c>
+      <c r="C176" s="2">
+        <v>45376</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177">
+        <v>23.705290000000002</v>
+      </c>
+      <c r="B177">
+        <v>120.5538</v>
+      </c>
+      <c r="C177" s="2">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178">
+        <v>22.64677</v>
+      </c>
+      <c r="B178">
+        <v>120.60639999999999</v>
+      </c>
+      <c r="C178" s="2">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179">
+        <v>22.643699999999999</v>
+      </c>
+      <c r="B179">
+        <v>120.61089</v>
+      </c>
+      <c r="C179" s="2">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A180">
+        <v>22.643930000000001</v>
+      </c>
+      <c r="B180">
+        <v>120.57898</v>
+      </c>
+      <c r="C180" s="2">
+        <v>45377</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A181">
+        <v>24.049040000000002</v>
+      </c>
+      <c r="B181">
+        <v>120.65879</v>
+      </c>
+      <c r="C181" s="2">
+        <v>45378</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A182">
+        <v>22.64781</v>
+      </c>
+      <c r="B182">
+        <v>120.59368000000001</v>
+      </c>
+      <c r="C182" s="2">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A183">
+        <v>22.735700000000001</v>
+      </c>
+      <c r="B183">
+        <v>120.32874</v>
+      </c>
+      <c r="C183" s="2">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A184">
+        <v>22.64677</v>
+      </c>
+      <c r="B184">
+        <v>120.60639999999999</v>
+      </c>
+      <c r="C184" s="2">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A185">
+        <v>22.61627</v>
+      </c>
+      <c r="B185">
+        <v>120.52642</v>
+      </c>
+      <c r="C185" s="2">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A186">
+        <v>22.649280000000001</v>
+      </c>
+      <c r="B186">
+        <v>120.59690999999999</v>
+      </c>
+      <c r="C186" s="2">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A187">
+        <v>22.644449999999999</v>
+      </c>
+      <c r="B187">
+        <v>120.60867</v>
+      </c>
+      <c r="C187" s="2">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188">
+        <v>22.99342</v>
+      </c>
+      <c r="B188">
+        <v>120.16471</v>
+      </c>
+      <c r="C188" s="2">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A189">
+        <v>22.962289999999999</v>
+      </c>
+      <c r="B189">
+        <v>120.23324</v>
+      </c>
+      <c r="C189" s="2">
+        <v>45382</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A190">
+        <v>22.64424</v>
+      </c>
+      <c r="B190">
+        <v>120.37526</v>
+      </c>
+      <c r="C190" s="2">
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A191">
+        <v>22.5825</v>
+      </c>
+      <c r="B191">
+        <v>120.34806</v>
+      </c>
+      <c r="C191" s="2">
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A192">
+        <v>22.674389999999999</v>
+      </c>
+      <c r="B192">
+        <v>120.32348</v>
+      </c>
+      <c r="C192" s="2">
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A193">
+        <v>23.485330000000001</v>
+      </c>
+      <c r="B193">
+        <v>120.47609</v>
+      </c>
+      <c r="C193" s="2">
+        <v>45386</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194">
+        <v>23.167919999999999</v>
+      </c>
+      <c r="B194">
+        <v>120.17191</v>
+      </c>
+      <c r="C194" s="2">
+        <v>45395</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A195">
+        <v>24.12407</v>
+      </c>
+      <c r="B195">
+        <v>120.71707000000001</v>
+      </c>
+      <c r="C195" s="2">
+        <v>45395</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196">
+        <v>22.646519999999999</v>
+      </c>
+      <c r="B196">
+        <v>120.60757</v>
+      </c>
+      <c r="C196" s="2">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A197">
+        <v>22.647790000000001</v>
+      </c>
+      <c r="B197">
+        <v>120.59310000000001</v>
+      </c>
+      <c r="C197" s="2">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A198">
+        <v>22.643350000000002</v>
+      </c>
+      <c r="B198">
+        <v>120.60983</v>
+      </c>
+      <c r="C198" s="2">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A199">
+        <v>24.183489999999999</v>
+      </c>
+      <c r="B199">
+        <v>120.61405000000001</v>
+      </c>
+      <c r="C199" s="2">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A200">
+        <v>24.186530000000001</v>
+      </c>
+      <c r="B200">
+        <v>120.61431</v>
+      </c>
+      <c r="C200" s="2">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A201">
+        <v>22.982749999999999</v>
+      </c>
+      <c r="B201">
+        <v>120.21192000000001</v>
+      </c>
+      <c r="C201" s="2">
+        <v>45396</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A202">
+        <v>22.984030000000001</v>
+      </c>
+      <c r="B202">
+        <v>120.18707000000001</v>
+      </c>
+      <c r="C202" s="2">
+        <v>45397</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A203">
+        <v>22.56504</v>
+      </c>
+      <c r="B203">
+        <v>120.3372</v>
+      </c>
+      <c r="C203" s="2">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <v>23.0093</v>
+      </c>
+      <c r="B204">
+        <v>120.23390999999999</v>
+      </c>
+      <c r="C204" s="2">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A205">
+        <v>22.61636</v>
+      </c>
+      <c r="B205">
+        <v>120.40868</v>
+      </c>
+      <c r="C205" s="2">
+        <v>45398</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A206">
+        <v>22.565149999999999</v>
+      </c>
+      <c r="B206">
+        <v>120.33727</v>
+      </c>
+      <c r="C206" s="2">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A207">
+        <v>24.145910000000001</v>
+      </c>
+      <c r="B207">
+        <v>120.63363</v>
+      </c>
+      <c r="C207" s="2">
+        <v>45399</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A208">
+        <v>22.687740000000002</v>
+      </c>
+      <c r="B208">
+        <v>120.29165</v>
+      </c>
+      <c r="C208" s="2">
+        <v>45401</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209">
+        <v>22.674389999999999</v>
+      </c>
+      <c r="B209">
+        <v>120.32348</v>
+      </c>
+      <c r="C209" s="2">
+        <v>45401</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A210">
+        <v>22.645340000000001</v>
+      </c>
+      <c r="B210">
+        <v>120.60666000000001</v>
+      </c>
+      <c r="C210" s="2">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A211">
+        <v>22.627279999999999</v>
+      </c>
+      <c r="B211">
+        <v>120.30144</v>
+      </c>
+      <c r="C211" s="2">
+        <v>45402</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A212">
+        <v>22.65616</v>
+      </c>
+      <c r="B212">
+        <v>120.34137</v>
+      </c>
+      <c r="C212" s="2">
+        <v>45410</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A213">
+        <v>24.123550000000002</v>
+      </c>
+      <c r="B213">
+        <v>120.67533</v>
+      </c>
+      <c r="C213" s="2">
+        <v>45413</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A214">
+        <v>22.62144</v>
+      </c>
+      <c r="B214">
+        <v>120.31972</v>
+      </c>
+      <c r="C214" s="2">
+        <v>45414</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A215">
+        <v>22.64528</v>
+      </c>
+      <c r="B215">
+        <v>120.60653000000001</v>
+      </c>
+      <c r="C215" s="2">
+        <v>45418</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A216">
+        <v>22.98133</v>
+      </c>
+      <c r="B216">
+        <v>120.22242</v>
+      </c>
+      <c r="C216" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A217">
+        <v>24.184609999999999</v>
+      </c>
+      <c r="B217">
+        <v>120.60451</v>
+      </c>
+      <c r="C217" s="2">
+        <v>45419</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A218">
         <v>24.130970000000001</v>
       </c>
-      <c r="B100">
+      <c r="B218">
         <v>120.67749000000001</v>
       </c>
-      <c r="C100" s="3">
+      <c r="C218" s="2">
         <v>45555</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C101">
-    <sortCondition ref="C1"/>
-  </sortState>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>